--- a/doc/Pasta1.xlsx
+++ b/doc/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\dev\git\faec-protocolo\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\faec-protocolo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32196C1A-AF3A-46B0-9F7F-3A045BB1CFBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E911124-87C5-42BB-BE4D-B3C0FF608161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-960" windowWidth="25440" windowHeight="14640" xr2:uid="{7EEAFFCA-5E3D-489F-914E-86744A63ABE5}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11160" xr2:uid="{7EEAFFCA-5E3D-489F-914E-86744A63ABE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>DATA</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>feedback</t>
+  </si>
+  <si>
+    <t>### SEMANA SINETEC ###</t>
   </si>
 </sst>
 </file>
@@ -221,8 +224,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="DIA DA SEMANA">
@@ -245,7 +248,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -619,7 +622,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +777,7 @@
         <v>segunda-feira</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -786,7 +789,7 @@
         <v>sexta-feira</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -810,7 +813,7 @@
         <v>sexta-feira</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -822,7 +825,7 @@
         <v>segunda-feira</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -834,7 +837,7 @@
         <v>sexta-feira</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -846,7 +849,7 @@
         <v>segunda-feira</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -858,7 +861,7 @@
         <v>sexta-feira</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -870,7 +873,7 @@
         <v>segunda-feira</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,7 +885,7 @@
         <v>sexta-feira</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +897,7 @@
         <v>segunda-feira</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,7 +909,7 @@
         <v>sexta-feira</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,6 +919,9 @@
       <c r="B20" t="str">
         <f>TEXT(Tabela1[[#This Row],[DATA]],"DDDD")</f>
         <v>segunda-feira</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
